--- a/secure/26P-Massil.xlsx
+++ b/secure/26P-Massil.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Massil-815697</t>
+    <t>26P-Massil-529382</t>
   </si>
   <si>
-    <t>26P-Massil-824520</t>
+    <t>26P-Massil-460683</t>
   </si>
   <si>
-    <t>26P-Massil-597705</t>
+    <t>26P-Massil-766591</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F0c41e98"/>
+        <fgColor rgb="F92af1d1"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:OK503"/>
+  <dimension ref="A1:JV503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -553,11 +553,14 @@
       </c>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:282" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>-0.936</v>
       </c>
       <c r="M18" s="4"/>
+      <c r="JV18" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1555,11 +1558,14 @@
       </c>
       <c r="M184" s="4"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>-0.268</v>
       </c>
       <c r="M185" s="4"/>
+      <c r="AN185" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
@@ -2329,14 +2335,11 @@
       </c>
       <c r="M313" s="4"/>
     </row>
-    <row r="314" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>0.248</v>
       </c>
       <c r="M314" s="4"/>
-      <c r="CB314" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
@@ -2542,14 +2545,11 @@
       </c>
       <c r="M348" s="4"/>
     </row>
-    <row r="349" spans="1:169" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>0.388</v>
       </c>
       <c r="M349" s="4"/>
-      <c r="FM349" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
@@ -2941,11 +2941,14 @@
       </c>
       <c r="M414" s="4"/>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:136" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>0.652</v>
       </c>
       <c r="M415" s="4"/>
+      <c r="EF415" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
@@ -3337,14 +3340,11 @@
       </c>
       <c r="M480" s="4"/>
     </row>
-    <row r="481" spans="1:401" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>0.916</v>
       </c>
       <c r="M481" s="4"/>
-      <c r="OK481" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
